--- a/pred_ohlcv/54_21/2020-01-23 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 STRAT ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>3294.858955389993</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4228.514655389993</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4227.246155389993</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3117.246155389993</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3644.772555389993</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -964,7 +964,7 @@
         <v>4568.047455389993</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>3995.829255389993</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4209.829255389993</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4209.829255389993</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>4209.829255389993</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>19130.08425539</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>47377.72415538999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>44867.03745539</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>44867.03745539</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>44867.03745539</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>44767.03745539</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>46704.02725539</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>47820.12725539</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>47497.17725539</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>47497.17725539</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>47497.17725539</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>47457.97375539</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>46379.46945539</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>46379.46945539</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>44258.34455538999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>44105.23445539</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>41105.23445539</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>10139.59895538999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>10222.43545538999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>10224.05385538999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3709.392655389994</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2950.583655389994</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2956.874755389993</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2774.858955389993</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3294.858955389993</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>4228.514655389993</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4227.246155389993</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3117.246155389993</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3644.772555389993</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3753.541955389993</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3827.226555389993</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1777.226555389993</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1777.226555389993</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1627.780344610007</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>4568.047455389993</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>19130.08425539</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>32702.87005538999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>44867.03745539</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>44867.03745539</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>44867.03745539</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>46704.02725539</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>47820.12725539</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>47497.17725539</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>47497.17725539</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>47497.17725539</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>47457.97375539</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
